--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEECEC-4A19-4959-B63A-57EDF0FDD7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB7B15-B7C6-4454-A2EE-167F31805BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
   <si>
     <t>person</t>
   </si>
@@ -387,6 +387,30 @@
   </si>
   <si>
     <t>europe</t>
+  </si>
+  <si>
+    <t>Alexander_the_Great</t>
+  </si>
+  <si>
+    <t>Joseph_Stalin</t>
+  </si>
+  <si>
+    <t>Leonardo_da_Vinci</t>
+  </si>
+  <si>
+    <t>Genghis_Khan</t>
+  </si>
+  <si>
+    <t>Benedictus_de_Spinoza</t>
+  </si>
+  <si>
+    <t>Theodor_Herzl</t>
+  </si>
+  <si>
+    <t>Pablo_Escobar</t>
+  </si>
+  <si>
+    <t>Albert_Einstein</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP14"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="V5" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1405,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1484,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1691,7 +1715,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -1833,7 +1857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +1937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1960,7 +1984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -2078,7 +2102,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
       <c r="T12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2086,15 +2110,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="T13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U13" s="1">
         <v>2</v>
       </c>
+      <c r="AH13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="T14" s="1" t="s">
         <v>110</v>
       </c>

--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB7B15-B7C6-4454-A2EE-167F31805BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D7542-14D7-4DE3-A738-90710278C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V5" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D7542-14D7-4DE3-A738-90710278C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBDC78-D9CC-4657-ABF9-7FB9BF453B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="127">
   <si>
     <t>person</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>Albert_Einstein</t>
+  </si>
+  <si>
+    <t>military_leader</t>
+  </si>
+  <si>
+    <t>19th_cent</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,347 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1391,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1751,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1478,13 +1824,16 @@
         <v>4</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1602,8 +1951,11 @@
       <c r="AP3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AR3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1661,8 +2013,11 @@
       <c r="AO4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1709,13 +2064,16 @@
         <v>40</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -1780,7 +2138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -1856,8 +2214,11 @@
       <c r="AO7" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1931,13 +2292,16 @@
         <v>74</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1983,8 +2347,11 @@
       <c r="AL9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -2027,8 +2394,11 @@
       <c r="AM10" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>74</v>
@@ -2101,16 +2471,22 @@
       <c r="AO11" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
       <c r="T12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="U12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="43.2" x14ac:dyDescent="0.3">
       <c r="T13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2148,52 +2524,266 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
       <c r="T14" s="1" t="s">
         <v>110</v>
       </c>
       <c r="U14" s="1">
         <v>2</v>
       </c>
+      <c r="AR14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="44:44" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="44:44" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AR26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR33" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR40" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="44:44" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AR51" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="44:44" x14ac:dyDescent="0.3">
+      <c r="AR53" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL5:AO5 AL4 L6:R6 L10 Y5:AI5 V5 V9:AI10 T8:U13 V6:Y6 AA6:AI8 L3:AI3 L2:N2 S2:AI2 AL2:AN2 L4:P4 V4:AI4 AO4 L5:N5 L9:M9 L7:Q7 V8:Y8 W7:Y7 L8:N8 AN8:AO8 P9:R9 AL8:AL9 P10:S10 AL10:AM10">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP3">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM6">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL7">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM11">
+    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO11">
+    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR3:AR5">
+    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8">
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR10">
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR11">
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15 AR18">
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR21:AR24">
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR33">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR39:AR40 AR37">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR43">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR46:AR47">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR51">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO11">
+  <conditionalFormatting sqref="AR53">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBDC78-D9CC-4657-ABF9-7FB9BF453B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251245A-F73A-44FA-96A1-45247A11FE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,177 +956,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1739,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
@@ -2697,88 +2527,88 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL5:AO5 AL4 L6:R6 L10 Y5:AI5 V5 V9:AI10 T8:U13 V6:Y6 AA6:AI8 L3:AI3 L2:N2 S2:AI2 AL2:AN2 L4:P4 V4:AI4 AO4 L5:N5 L9:M9 L7:Q7 V8:Y8 W7:Y7 L8:N8 AN8:AO8 P9:R9 AL8:AL9 P10:S10 AL10:AM10">
-    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="duplicateValues" dxfId="45" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3">
-    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3">
-    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3">
-    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP3">
-    <cfRule type="duplicateValues" dxfId="41" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6">
-    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM6">
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL7">
-    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7">
-    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7">
-    <cfRule type="duplicateValues" dxfId="36" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM11">
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11">
-    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AR5">
-    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8">
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR10">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR12">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR15 AR18">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR21:AR24">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR27">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR28">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR31">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR32">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR33">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR39:AR40 AR37">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR43">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR46:AR47">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR51">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251245A-F73A-44FA-96A1-45247A11FE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750FE8F6-C7E6-4E8B-8377-678EF37CA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>

--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750FE8F6-C7E6-4E8B-8377-678EF37CA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AACFC1-A57B-41C6-85A0-692D68279998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>

--- a/small modle/query/sample query results 1.xlsx
+++ b/small modle/query/sample query results 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmue\Documents\git\30Qs\small modle\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AACFC1-A57B-41C6-85A0-692D68279998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD3734E-0D2E-4586-B696-D42141D50E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$K$2:$AI$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
